--- a/NBA Sponserships.xlsx
+++ b/NBA Sponserships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/544eb1111fb4475e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{9116D21B-8552-403E-A9FE-4F7BBD437A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE5E1C4-E745-4AAA-99D1-E450806FA796}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{9116D21B-8552-403E-A9FE-4F7BBD437A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93AB8F23-51A3-4F49-90CB-E77CEDDFCDB6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{73FDB64A-C428-4F1A-8DF6-10DC64773788}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>Tenor of WNBA Sponserships</t>
   </si>
@@ -178,9 +178,6 @@
     <t>2021 start N/A</t>
   </si>
   <si>
-    <t>Gainbridge?</t>
-  </si>
-  <si>
     <t>Gainbridge Insurance Agency LLC /Group One
  Thousand One LLC</t>
   </si>
@@ -203,14 +200,78 @@
     <t>Main Sponser's Name</t>
   </si>
   <si>
-    <t>Target?</t>
-  </si>
-  <si>
-    <t>1990 - present (5 year
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Wintrust Financial</t>
+  </si>
+  <si>
+    <t>2016 15 year deal</t>
+  </si>
+  <si>
+    <t>2015 N/A</t>
+  </si>
+  <si>
+    <t>Michelob Ultra</t>
+  </si>
+  <si>
+    <t>crypto.com center</t>
+  </si>
+  <si>
+    <t>Barclays Center</t>
+  </si>
+  <si>
+    <t>2020 N/A</t>
+  </si>
+  <si>
+    <t>Footprint Center</t>
+  </si>
+  <si>
+    <t>2020 start N/A</t>
+  </si>
+  <si>
+    <t>Amazon/ Climate 
+Pledge Arena</t>
+  </si>
+  <si>
+    <t>Gateway Center Arena</t>
+  </si>
+  <si>
+    <t>2021 N/A</t>
+  </si>
+  <si>
+    <t>1.5 mil per year</t>
+  </si>
+  <si>
+    <t>College Park Center</t>
+  </si>
+  <si>
+    <t>Gainbridge</t>
+  </si>
+  <si>
+    <t>2001 start 20 years</t>
+  </si>
+  <si>
+    <t>6.5 mil per year</t>
+  </si>
+  <si>
+    <t>1990 - present (3 to 5 year
  annul renewel)</t>
   </si>
   <si>
-    <t>Target</t>
+    <t>Shared Sponserships</t>
+  </si>
+  <si>
+    <t>Team Sponser is Shared With</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>not shared</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -569,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2412D5BC-4E27-4950-9CAB-958A3E86CA2F}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,14 +643,16 @@
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -600,75 +663,261 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -682,10 +931,10 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -702,7 +951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -714,6 +963,9 @@
       </c>
       <c r="D16" t="s">
         <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,10 +987,10 @@
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -764,15 +1016,15 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -781,7 +1033,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -803,10 +1055,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
